--- a/Ad_Hoc_Request_Solutions/Business Request-10.xlsx
+++ b/Ad_Hoc_Request_Solutions/Business Request-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\OneDrive\Desktop\Power BI - Reports\Consumer Goods Insights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB45DE0-F20B-4322-8D21-9E6B4B083816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B8A36-ED21-43E6-9AC9-C3BCBB7A9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8A47B955-C74A-453C-8928-B5E0F84ADFF1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -579,10 +579,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -714,49 +713,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1020,7 +977,7 @@
       <c:catAx>
         <c:axId val="1081744287"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1073,7 +1030,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1889,7 +1846,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA1604DD-DEC8-4888-A515-2949477BC203}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA1604DD-DEC8-4888-A515-2949477BC203}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2348,7 +2305,7 @@
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2376,7 +2333,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>701373</v>
       </c>
     </row>
@@ -2387,7 +2344,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>688003</v>
       </c>
     </row>
@@ -2398,7 +2355,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>676245</v>
       </c>
     </row>
@@ -2409,7 +2366,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>428498</v>
       </c>
     </row>
@@ -2420,7 +2377,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>419865</v>
       </c>
     </row>
@@ -2431,7 +2388,7 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>419471</v>
       </c>
     </row>
@@ -2442,7 +2399,7 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>17434</v>
       </c>
     </row>
@@ -2453,7 +2410,7 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>17275</v>
       </c>
     </row>
@@ -2464,7 +2421,7 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>17280</v>
       </c>
     </row>
